--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,127 +390,127 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -686,9 +686,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -699,7 +707,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -719,215 +727,215 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -935,7 +943,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -943,7 +951,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -951,7 +959,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -959,7 +967,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -967,7 +975,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -975,7 +983,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -983,7 +991,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -991,7 +999,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -999,7 +1007,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1007,7 +1015,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1015,9 +1023,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1028,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1048,223 +1064,223 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -1272,7 +1288,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -1280,7 +1296,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -1288,7 +1304,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1296,7 +1312,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1304,7 +1320,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1312,7 +1328,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1320,7 +1336,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1328,7 +1344,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1336,7 +1352,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1344,9 +1360,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1357,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1377,231 +1401,231 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -1609,7 +1633,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -1617,7 +1641,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1625,7 +1649,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1633,7 +1657,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1641,7 +1665,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1649,7 +1673,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1657,7 +1681,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1665,7 +1689,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1673,9 +1697,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -1686,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,247 +1738,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -1954,7 +1986,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -1962,7 +1994,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -1970,7 +2002,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -1978,7 +2010,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -1986,7 +2018,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1994,7 +2026,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2002,9 +2034,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -2015,7 +2055,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,255 +2075,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2291,7 +2331,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2299,7 +2339,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2307,7 +2347,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2315,7 +2355,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2323,7 +2363,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2331,9 +2371,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -2344,7 +2392,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2364,255 +2412,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -2620,7 +2668,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2628,7 +2676,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2636,7 +2684,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2644,7 +2692,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2652,7 +2700,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2660,9 +2708,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -2673,7 +2729,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2693,263 +2749,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -2957,7 +3013,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -2965,7 +3021,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -2973,7 +3029,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -2981,7 +3037,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -2989,9 +3045,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3002,7 +3066,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3022,271 +3086,271 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -3294,7 +3358,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3302,7 +3366,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3310,7 +3374,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3318,9 +3382,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3331,7 +3403,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3351,279 +3423,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -3631,7 +3703,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -3639,7 +3711,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3647,9 +3719,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3660,7 +3740,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3680,295 +3760,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -3976,9 +4056,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -3989,7 +4077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4009,135 +4097,135 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -4145,7 +4233,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -4153,7 +4241,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4161,7 +4249,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -4169,7 +4257,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -4177,7 +4265,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -4185,7 +4273,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -4193,7 +4281,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -4201,7 +4289,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -4209,7 +4297,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -4217,7 +4305,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -4225,7 +4313,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -4233,7 +4321,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -4241,7 +4329,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4249,7 +4337,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4257,7 +4345,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4265,7 +4353,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4273,7 +4361,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4281,7 +4369,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4289,7 +4377,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4297,7 +4385,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4305,9 +4393,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -4318,7 +4414,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4338,295 +4434,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4634,9 +4730,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -4647,7 +4751,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4667,151 +4771,151 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4819,7 +4923,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -4827,7 +4931,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -4835,7 +4939,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -4843,7 +4947,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -4851,7 +4955,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -4859,7 +4963,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -4867,7 +4971,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -4875,7 +4979,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -4883,7 +4987,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -4891,7 +4995,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -4899,7 +5003,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4907,7 +5011,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4915,7 +5019,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4923,7 +5027,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4931,7 +5035,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4939,7 +5043,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4947,7 +5051,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4955,7 +5059,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4963,9 +5067,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -4976,7 +5088,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4996,159 +5108,159 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -5156,7 +5268,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -5164,7 +5276,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -5172,7 +5284,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -5180,7 +5292,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -5188,7 +5300,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -5196,7 +5308,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -5204,7 +5316,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -5212,7 +5324,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -5220,7 +5332,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -5228,7 +5340,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5236,7 +5348,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5244,7 +5356,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5252,7 +5364,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5260,7 +5372,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5268,7 +5380,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5276,7 +5388,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5284,7 +5396,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5292,9 +5404,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -5305,7 +5425,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5325,167 +5445,167 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>130</v>
@@ -5493,7 +5613,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -5501,7 +5621,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -5509,7 +5629,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -5517,7 +5637,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -5525,7 +5645,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -5533,7 +5653,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -5541,7 +5661,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -5549,7 +5669,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -5557,7 +5677,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5565,7 +5685,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5573,7 +5693,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5581,7 +5701,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5589,7 +5709,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5597,7 +5717,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5605,7 +5725,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5613,7 +5733,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5621,9 +5741,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -5634,7 +5762,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5654,175 +5782,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -5830,7 +5958,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -5838,7 +5966,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -5846,7 +5974,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -5854,7 +5982,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -5862,7 +5990,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -5870,7 +5998,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -5878,7 +6006,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -5886,7 +6014,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5894,7 +6022,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5902,7 +6030,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5910,7 +6038,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5918,7 +6046,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5926,7 +6054,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5934,7 +6062,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5942,7 +6070,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5950,9 +6078,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -5963,7 +6099,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5983,183 +6119,183 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -6167,7 +6303,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -6175,7 +6311,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -6183,7 +6319,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -6191,7 +6327,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -6199,7 +6335,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -6207,7 +6343,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -6215,7 +6351,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -6223,7 +6359,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6231,7 +6367,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6239,7 +6375,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6247,7 +6383,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6255,7 +6391,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6263,7 +6399,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6271,7 +6407,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6279,9 +6415,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -6292,7 +6436,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6312,199 +6456,199 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -6512,7 +6656,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -6520,7 +6664,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -6528,7 +6672,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -6536,7 +6680,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -6544,7 +6688,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -6552,7 +6696,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6560,7 +6704,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6568,7 +6712,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6576,7 +6720,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6584,7 +6728,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6592,7 +6736,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6600,7 +6744,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6608,9 +6752,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>
@@ -6621,7 +6773,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6641,207 +6793,207 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -6849,7 +7001,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -6857,7 +7009,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -6865,7 +7017,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -6873,7 +7025,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -6881,7 +7033,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -6889,7 +7041,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6897,7 +7049,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6905,7 +7057,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6913,7 +7065,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6921,7 +7073,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6929,7 +7081,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6937,9 +7089,17 @@
     </row>
     <row r="39">
       <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/lvc_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -842,7 +842,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -858,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -866,7 +866,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -874,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -898,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -906,7 +906,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -914,7 +914,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -922,7 +922,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -930,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1083,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1115,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -1155,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1163,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -1179,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -1187,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -1195,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -1211,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1227,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -1243,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1251,7 +1251,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -1259,7 +1259,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -1267,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
@@ -1283,7 +1283,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1428,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1444,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1468,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1476,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1492,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -1500,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1508,7 +1508,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -1516,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -1524,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1532,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1540,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -1548,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -1556,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1564,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -1572,7 +1572,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
@@ -1580,7 +1580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1588,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1596,7 +1596,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -1604,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1612,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -1620,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1628,7 +1628,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -1765,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1781,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1789,7 +1789,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1813,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1829,7 +1829,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -1837,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1845,7 +1845,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -1869,7 +1869,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -1877,7 +1877,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1885,7 +1885,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -1893,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -1901,7 +1901,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1909,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1917,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -1925,7 +1925,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -1933,7 +1933,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -1941,7 +1941,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -1949,7 +1949,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1957,7 +1957,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1965,7 +1965,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -1973,7 +1973,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2094,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2118,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -2126,7 +2126,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -2134,7 +2134,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -2142,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2158,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2166,7 +2166,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -2174,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2182,7 +2182,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -2190,7 +2190,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -2198,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -2206,7 +2206,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2214,7 +2214,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -2222,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -2230,7 +2230,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -2246,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -2254,7 +2254,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -2262,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -2270,7 +2270,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -2278,7 +2278,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -2286,7 +2286,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -2294,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -2302,7 +2302,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -2310,7 +2310,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -2318,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2455,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -2463,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -2479,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -2487,7 +2487,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2503,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2511,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -2519,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2527,7 +2527,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -2535,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -2543,7 +2543,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -2551,7 +2551,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -2559,7 +2559,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -2567,7 +2567,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -2575,7 +2575,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -2583,7 +2583,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -2591,7 +2591,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -2599,7 +2599,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -2607,7 +2607,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -2615,7 +2615,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -2623,7 +2623,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -2631,7 +2631,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -2639,7 +2639,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -2647,7 +2647,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -2655,7 +2655,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -2663,7 +2663,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2768,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -2776,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -2784,7 +2784,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2792,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2800,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -2816,7 +2816,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -2824,7 +2824,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -2832,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2840,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2848,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2856,7 +2856,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2864,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -2872,7 +2872,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2880,7 +2880,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -2896,7 +2896,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -2904,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -2912,7 +2912,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -2928,7 +2928,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -2936,7 +2936,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -2944,7 +2944,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -2968,7 +2968,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -2976,7 +2976,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -2984,7 +2984,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -2992,7 +2992,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -3000,7 +3000,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -3105,7 +3105,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -3113,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3121,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3129,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -3137,7 +3137,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -3145,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -3153,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -3161,7 +3161,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -3185,7 +3185,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -3193,7 +3193,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -3201,7 +3201,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -3209,7 +3209,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3217,7 +3217,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3233,7 +3233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -3257,7 +3257,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -3273,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -3281,7 +3281,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -3305,7 +3305,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -3329,7 +3329,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -3442,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -3450,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -3458,7 +3458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3466,7 +3466,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -3474,7 +3474,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -3482,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -3490,7 +3490,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -3498,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -3506,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -3514,7 +3514,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -3522,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -3530,7 +3530,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -3538,7 +3538,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -3546,7 +3546,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -3554,7 +3554,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -3586,7 +3586,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -3610,7 +3610,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -3634,7 +3634,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -3666,7 +3666,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -3682,7 +3682,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -3690,7 +3690,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3835,7 +3835,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -3867,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -3875,7 +3875,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -3883,7 +3883,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -3891,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3915,7 +3915,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -3923,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3955,7 +3955,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -3995,7 +3995,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -4003,7 +4003,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -4019,7 +4019,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -4035,7 +4035,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -4116,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -4140,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -4148,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -4180,7 +4180,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -4188,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -4212,7 +4212,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -4220,7 +4220,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
@@ -4228,7 +4228,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -4453,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -4461,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -4469,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -4477,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -4485,7 +4485,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -4493,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -4501,7 +4501,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -4509,7 +4509,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -4517,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -4525,7 +4525,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -4533,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -4541,7 +4541,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -4549,7 +4549,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -4557,7 +4557,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -4565,7 +4565,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -4573,7 +4573,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -4581,7 +4581,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -4589,7 +4589,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -4597,7 +4597,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -4605,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -4629,7 +4629,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -4637,7 +4637,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -4669,7 +4669,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -4677,7 +4677,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -4685,7 +4685,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -4693,7 +4693,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -4701,7 +4701,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -4709,7 +4709,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -4717,7 +4717,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -4725,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -4790,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -4798,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -4854,7 +4854,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -4862,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -4894,7 +4894,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -4902,7 +4902,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -4910,7 +4910,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -5127,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -5135,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -5143,7 +5143,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -5151,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -5167,7 +5167,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -5223,7 +5223,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
@@ -5231,7 +5231,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -5239,7 +5239,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -5247,7 +5247,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
@@ -5255,7 +5255,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -5456,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -5472,7 +5472,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -5480,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -5488,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -5496,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -5512,7 +5512,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -5528,7 +5528,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -5544,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -5552,7 +5552,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -5576,7 +5576,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -5584,7 +5584,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -5592,7 +5592,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
@@ -5600,7 +5600,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -5608,7 +5608,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -5809,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -5817,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -5825,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -5833,7 +5833,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -5841,7 +5841,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -5849,7 +5849,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -5857,7 +5857,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -5881,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -5897,7 +5897,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -5905,7 +5905,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -5913,7 +5913,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -5921,7 +5921,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -5929,7 +5929,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
@@ -5937,7 +5937,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
@@ -5945,7 +5945,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -5953,7 +5953,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -6130,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -6138,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -6146,7 +6146,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -6154,7 +6154,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -6162,7 +6162,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -6170,7 +6170,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -6178,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -6186,7 +6186,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -6194,7 +6194,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -6202,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -6210,7 +6210,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -6218,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -6226,7 +6226,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -6234,7 +6234,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -6242,7 +6242,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -6250,7 +6250,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -6258,7 +6258,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -6266,7 +6266,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -6274,7 +6274,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -6282,7 +6282,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -6290,7 +6290,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -6298,7 +6298,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -6467,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -6475,7 +6475,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -6483,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -6491,7 +6491,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -6499,7 +6499,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -6507,7 +6507,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -6515,7 +6515,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -6523,7 +6523,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -6531,7 +6531,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -6539,7 +6539,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -6547,7 +6547,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -6555,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -6563,7 +6563,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -6571,7 +6571,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -6579,7 +6579,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -6587,7 +6587,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -6595,7 +6595,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -6603,7 +6603,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -6611,7 +6611,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -6619,7 +6619,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -6627,7 +6627,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -6635,7 +6635,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -6643,7 +6643,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -6804,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -6812,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -6820,7 +6820,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -6828,7 +6828,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -6836,7 +6836,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -6844,7 +6844,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -6852,7 +6852,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -6860,7 +6860,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -6868,7 +6868,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -6876,7 +6876,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -6884,7 +6884,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -6892,7 +6892,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -6900,7 +6900,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -6908,7 +6908,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -6916,7 +6916,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -6924,7 +6924,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -6932,7 +6932,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -6940,7 +6940,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -6948,7 +6948,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -6956,7 +6956,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -6964,7 +6964,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -6972,7 +6972,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
@@ -6980,7 +6980,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
@@ -6988,7 +6988,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -6996,7 +6996,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
